--- a/datas/test_cases.xlsx
+++ b/datas/test_cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="3" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="7935" windowWidth="20490"/>
   </bookViews>
   <sheets>
-    <sheet name="login" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="TestLoginSuccess" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="TestFormatLoginFail" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TestAccountLoginFail" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="invest" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="login" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TestLoginSuccess" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TestFormatLoginFail" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TestAccountLoginFail" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="invest" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="B2" s="10" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C2" s="10" t="inlineStr">
@@ -1760,7 +1760,7 @@
       </c>
       <c r="C3" s="10" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D3" s="10" t="inlineStr">
@@ -1785,12 +1785,12 @@
       </c>
       <c r="B4" s="10" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C4" s="10" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D4" s="10" t="inlineStr">

--- a/datas/test_cases.xlsx
+++ b/datas/test_cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="3" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="7935" windowWidth="20490"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="login" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TestLoginSuccess" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TestFormatLoginFail" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TestAccountLoginFail" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="invest" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="login" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="TestLoginSuccess" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="TestFormatLoginFail" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TestAccountLoginFail" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="invest" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="B2" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="C2" s="10" t="inlineStr">
@@ -1760,7 +1760,7 @@
       </c>
       <c r="C3" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D3" s="10" t="inlineStr">
@@ -1785,12 +1785,12 @@
       </c>
       <c r="B4" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="C4" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D4" s="10" t="inlineStr">
